--- a/biology/Microbiologie/Taxon_candidat/Taxon_candidat.xlsx
+++ b/biology/Microbiologie/Taxon_candidat/Taxon_candidat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un taxon candidat, phylum candidat, division candidate ou niveau de division candidate est un groupe monophylétique d'organismes procaryotes pour lesquels aucun représentant n'a pu être cultivé en laboratoire à ce jour, mais dont l'appartenance à un clade distinct a pu être obtenue par des analyses métagénomiques et de l'ARNr 16S d'échantillons environnementaux. Le terme candidatus désigne un OTU pour lequel il n'y a pas assez d'information pour l'associer à une nouvelle espèce d'après le Code International de la Nomenclature des Bactéries.
 </t>
@@ -511,11 +523,13 @@
           <t>Exemples de taxons candidats chez les bactéries</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>phylum candidat TM7[1] (renommée Saccharibacteria en 2013[2])
-Poribacteria[3]
-phylum candidat TG3[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>phylum candidat TM7 (renommée Saccharibacteria en 2013)
+Poribacteria
+phylum candidat TG3</t>
         </is>
       </c>
     </row>
